--- a/TestSP.xlsx
+++ b/TestSP.xlsx
@@ -63607,14 +63607,40 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>SA-31519</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>d, j</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr"/>
       <c r="AI2" s="6" t="inlineStr">
         <is>
           <t>Fail</t>

--- a/TestSP.xlsx
+++ b/TestSP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1788" yWindow="1716" windowWidth="19134" windowHeight="9780" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" state="visible" r:id="rId1"/>
@@ -453,7 +453,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
       <alignment horizontal="center" vertical="bottom"/>
       <border>
         <left/>
@@ -57238,9 +57238,9 @@
   </sheetPr>
   <dimension ref="A1:AJ346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K146" sqref="K146"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -61516,7 +61516,7 @@
           <t>DiGiorgio, Jonathan</t>
         </is>
       </c>
-      <c r="H146" s="3" t="inlineStr"/>
+      <c r="H146" s="3" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n"/>
@@ -63540,9 +63540,9 @@
   </sheetPr>
   <dimension ref="A1:AJ348"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -63609,12 +63609,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>02/08/2023</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>102030</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -63637,10 +63637,10 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>d, j</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr"/>
+          <t>d,j</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
       <c r="AI2" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
@@ -63662,7 +63662,9 @@
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AI3" s="6" t="inlineStr">
         <is>
           <t>Use as is</t>
@@ -63675,13 +63677,27 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
       <c r="H4" s="3" t="n"/>
       <c r="AI4" s="6" t="inlineStr">
         <is>
@@ -67156,10 +67172,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="F2:F348" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F2:F3 F5:F348" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>$AI$1:$AI$4</formula1>
     </dataValidation>
-    <dataValidation sqref="G2:G348" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G2:G3 G5:G348" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>$AJ$1:$AJ$8</formula1>
     </dataValidation>
   </dataValidations>
